--- a/Machine Learning/DME/usable FA list.xlsx
+++ b/Machine Learning/DME/usable FA list.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Private\Kellogg\amd_project\Machine Learning\DME\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6820" yWindow="-80" windowWidth="21600" windowHeight="14400" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17835" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,11 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>JDRF 2 Baseline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Outline DrComer - JDRF 2 Baseline - Late Filled.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,10 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JDRF 2 6M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ORIGINAL-DrComer---JDRF-2-6M---Late-Filled-Outline DrComer - JDRF 2 6M - Early_baseimg.tif</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -45,10 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>start at 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Original Late</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -81,10 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JDRF 1 6M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ORIGINAL-DrComer--JDRF-1-6M---Late-filled-Outline DrComer- JDRF 1 6M - Early_baseimg.tif</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,13 +92,106 @@
   <si>
     <t>ORIGINAL-DrComer---JDRF-2-Baseline---Late-Filled-Outline DrComer - JDRF 2 Baseline - Early_baseimg.tif</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORIGINAL-DrComer---JDRF-3---Baseline---Late-Filled-Outline DrComer - JDRF 3 - Baseline - Early_corrimg.tif</t>
+  </si>
+  <si>
+    <t>ORIGINAL-DrComer---JDRF-3---Baseline---Late-Filled-Outline DrComer - JDRF 3 - Baseline - Early_baseimg.tif</t>
+  </si>
+  <si>
+    <t>Outline DrComer - JDRF 3 - 6M - Late Filled.jpg</t>
+  </si>
+  <si>
+    <t>JDRF 01 6M</t>
+  </si>
+  <si>
+    <t>JDRF 02 6M</t>
+  </si>
+  <si>
+    <t>JDRF 03 Baseline</t>
+  </si>
+  <si>
+    <t>ORIGINAL-DrComer---JDRF-3---6M---Late-Filled-Outline DrComer - JDRF 3 - 6M - Early_baseimg.tif</t>
+  </si>
+  <si>
+    <t>ORIGINAL-DrComer---JDRF-3---6M---Late-Filled-Outline DrComer - JDRF 3 - 6M - Early_corrimg.tif</t>
+  </si>
+  <si>
+    <t>Outline DrComer - JDRF 3 - Baseline - Late Filled.jpg</t>
+  </si>
+  <si>
+    <t>JDRF 03 6M</t>
+  </si>
+  <si>
+    <t>JDRF 02 2/14</t>
+  </si>
+  <si>
+    <t>ORIGINAL-DrComer---JDRF-9---6M---Late-Filled-Outline DrComer - JDRF 9 - 6M - Early_baseimg.tif</t>
+  </si>
+  <si>
+    <t>ORIGINAL-DrComer---JDRF-9---6M---Late-Filled-Outline DrComer - JDRF 9 - 6M - Early_corrimg.tif</t>
+  </si>
+  <si>
+    <t>Outline DrComer - JDRF 9 - 6M - Late Filled.jpg</t>
+  </si>
+  <si>
+    <t>JDRF 09 6M</t>
+  </si>
+  <si>
+    <t>ORIGINAL-DrComer---JDRF-11---6M---Late-filled-Outline DrComer - JDRF 11 - 6M  Early_corrimg.tif</t>
+  </si>
+  <si>
+    <t>ORIGINAL-DrComer---JDRF-11---6M---Late-filled-Outline DrComer - JDRF 11 - 6M  Early_baseimg.tif</t>
+  </si>
+  <si>
+    <t>JDRF 11 6M</t>
+  </si>
+  <si>
+    <t>Outline DrComer - JDRF 11 - 6M - Late filled.jpg</t>
+  </si>
+  <si>
+    <t>ORIGINAL-DrComer---JDRF-15---Baseline---Late-Filled-Outline DrComer - JDRF 15 - Baseline - Early_baseimg.tif</t>
+  </si>
+  <si>
+    <t>JDRF 15 Baseline</t>
+  </si>
+  <si>
+    <t>ORIGINAL-DrComer---JDRF-15---Baseline---Late-Filled-Outline DrComer - JDRF 15 - Baseline - Early_corrimg.tif</t>
+  </si>
+  <si>
+    <t>Outline DrComer - JDRF 15 - Baseline - Late Filled.jpg</t>
+  </si>
+  <si>
+    <t>ORIGINAL DrComer---JDRF16---6M---Late-Filled-Outline DrComer - JDRF16 - 6M - Early_corrimg.tif</t>
+  </si>
+  <si>
+    <t>ORIGINAL DrComer---JDRF16---6M---Late-Filled-Outline DrComer - JDRF16 - 6M - Early_baseimg.tif</t>
+  </si>
+  <si>
+    <t>Outline DrComer - JDRF16 - 6M - Late Filled.jpg</t>
+  </si>
+  <si>
+    <t>JDRF 16 6M</t>
+  </si>
+  <si>
+    <t>Outline DrComer - JDRF18 - 6M - Late Filled.jpg</t>
+  </si>
+  <si>
+    <t>ORIGINAL-DrComer---JDRF18---6M---Late-Filled-Outline DrComer - JDRF18 - 6M - Early_corrimg.tif</t>
+  </si>
+  <si>
+    <t>JDRF 18 6M</t>
+  </si>
+  <si>
+    <t>ORIGINAL-DrComer---JDRF18---6M---Late-Filled-Outline DrComer - JDRF18 - 6M - Early_baseimg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -150,6 +232,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -472,175 +562,230 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:F21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="13.25" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="53" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="42.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="48.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="46" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="48.375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="26">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="26">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="26">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4">
+    </row>
+    <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" ht="26">
-      <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
